--- a/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TeamStats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -823,11 +823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="603624448"/>
-        <c:axId val="603624992"/>
+        <c:axId val="-769370688"/>
+        <c:axId val="-769368512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603624448"/>
+        <c:axId val="-769370688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603624992"/>
+        <c:crossAx val="-769368512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603624992"/>
+        <c:axId val="-769368512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603624448"/>
+        <c:crossAx val="-769370688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,11 +1129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="603621728"/>
-        <c:axId val="603627168"/>
+        <c:axId val="-769388096"/>
+        <c:axId val="-769367968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603621728"/>
+        <c:axId val="-769388096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603627168"/>
+        <c:crossAx val="-769367968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1177,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603627168"/>
+        <c:axId val="-769367968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603621728"/>
+        <c:crossAx val="-769388096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,11 +1633,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="603625536"/>
-        <c:axId val="603629888"/>
+        <c:axId val="-769398432"/>
+        <c:axId val="-769396256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603625536"/>
+        <c:axId val="-769398432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603629888"/>
+        <c:crossAx val="-769396256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603629888"/>
+        <c:axId val="-769396256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1719,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603625536"/>
+        <c:crossAx val="-769398432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E35:E36"/>
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2572,10 @@
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <f>AVERAGE(B2:B25)</f>
+        <v>1.3786835383765059</v>
+      </c>
       <c r="C27" s="3">
         <f>AVERAGE(C2:C25)</f>
         <v>91.25</v>

--- a/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -823,11 +823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-769370688"/>
-        <c:axId val="-769368512"/>
+        <c:axId val="-75820240"/>
+        <c:axId val="-75826768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-769370688"/>
+        <c:axId val="-75820240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-769368512"/>
+        <c:crossAx val="-75826768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769368512"/>
+        <c:axId val="-75826768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-769370688"/>
+        <c:crossAx val="-75820240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,11 +1129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-769388096"/>
-        <c:axId val="-769367968"/>
+        <c:axId val="-75828400"/>
+        <c:axId val="-75822960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-769388096"/>
+        <c:axId val="-75828400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-769367968"/>
+        <c:crossAx val="-75822960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1177,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769367968"/>
+        <c:axId val="-75822960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-769388096"/>
+        <c:crossAx val="-75828400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,11 +1633,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-769398432"/>
-        <c:axId val="-769396256"/>
+        <c:axId val="-75824592"/>
+        <c:axId val="-75819152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769398432"/>
+        <c:axId val="-75824592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-769396256"/>
+        <c:crossAx val="-75819152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769396256"/>
+        <c:axId val="-75819152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1719,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-769398432"/>
+        <c:crossAx val="-75824592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1734,6 +1734,531 @@
           <c:y val="0.83776064856675481"/>
           <c:w val="0.11750059928020019"/>
           <c:h val="0.15599110152342985"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Team Velocity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> vs Story Points - Learning Based</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14572091632391326"/>
+          <c:y val="9.5808371187279459E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4949142666849355E-2"/>
+          <c:y val="0.13412493009257956"/>
+          <c:w val="0.87514615554867259"/>
+          <c:h val="0.73392707700478388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TeamStats!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.68560316457799997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48698055407565199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51286833271167398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48717521652231799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42467441628085101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24967688873222799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30334031214312901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63851051228901401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58718683368869895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36352305774823401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89166825185467002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2221712187284799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1996001332888999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89734083785514396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2954646399842</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8348512741013401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9847063547103601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0205292593097801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8556753805201001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9430051813471501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0935653840012698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2317393589069798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.44148132152882</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.43706703612916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-46529152"/>
+        <c:axId val="-46532960"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TeamStats!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>storyPoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-46530784"/>
+        <c:axId val="-46524256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-46529152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="2000" b="0"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42439405194419311"/>
+              <c:y val="0.9097339293401947"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-46532960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-46532960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-46529152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-46524256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-46530784"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-46530784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-46524256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75307459472860105"/>
+          <c:y val="0.74413909263185851"/>
+          <c:w val="0.17482523862700222"/>
+          <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1843,6 +2368,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>305921</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2116,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -823,11 +823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-75820240"/>
-        <c:axId val="-75826768"/>
+        <c:axId val="-461670784"/>
+        <c:axId val="-461672416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-75820240"/>
+        <c:axId val="-461670784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-75826768"/>
+        <c:crossAx val="-461672416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-75826768"/>
+        <c:axId val="-461672416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-75820240"/>
+        <c:crossAx val="-461670784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,11 +1129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-75828400"/>
-        <c:axId val="-75822960"/>
+        <c:axId val="-461662080"/>
+        <c:axId val="-461670240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-75828400"/>
+        <c:axId val="-461662080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-75822960"/>
+        <c:crossAx val="-461670240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1177,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-75822960"/>
+        <c:axId val="-461670240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-75828400"/>
+        <c:crossAx val="-461662080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,11 +1633,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-75824592"/>
-        <c:axId val="-75819152"/>
+        <c:axId val="-461665344"/>
+        <c:axId val="-461668608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-75824592"/>
+        <c:axId val="-461665344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-75819152"/>
+        <c:crossAx val="-461668608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-75819152"/>
+        <c:axId val="-461668608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1719,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-75824592"/>
+        <c:crossAx val="-461665344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,8 +2001,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-46529152"/>
-        <c:axId val="-46532960"/>
+        <c:axId val="-461675680"/>
+        <c:axId val="-461667520"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2124,11 +2124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-46530784"/>
-        <c:axId val="-46524256"/>
+        <c:axId val="-461663712"/>
+        <c:axId val="-461669696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46529152"/>
+        <c:axId val="-461675680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-46532960"/>
+        <c:crossAx val="-461667520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46532960"/>
+        <c:axId val="-461667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -2198,12 +2198,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46529152"/>
+        <c:crossAx val="-461675680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-46524256"/>
+        <c:axId val="-461669696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46530784"/>
+        <c:crossAx val="-461663712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-46530784"/>
+        <c:axId val="-461663712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-46524256"/>
+        <c:crossAx val="-461669696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>sprint</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Idle Periods</t>
+  </si>
+  <si>
+    <t>Average idle period</t>
+  </si>
+  <si>
+    <t>average working period</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -490,6 +505,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -535,13 +565,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -823,11 +862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-461670784"/>
-        <c:axId val="-461672416"/>
+        <c:axId val="-999217184"/>
+        <c:axId val="-999216096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-461670784"/>
+        <c:axId val="-999217184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461672416"/>
+        <c:crossAx val="-999216096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461672416"/>
+        <c:axId val="-999216096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461670784"/>
+        <c:crossAx val="-999217184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,11 +1168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-461662080"/>
-        <c:axId val="-461670240"/>
+        <c:axId val="-999211200"/>
+        <c:axId val="-999213920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-461662080"/>
+        <c:axId val="-999211200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461670240"/>
+        <c:crossAx val="-999213920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1177,7 +1216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461670240"/>
+        <c:axId val="-999213920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461662080"/>
+        <c:crossAx val="-999211200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,11 +1672,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-461665344"/>
-        <c:axId val="-461668608"/>
+        <c:axId val="-999209568"/>
+        <c:axId val="-999208480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-461665344"/>
+        <c:axId val="-999209568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461668608"/>
+        <c:crossAx val="-999208480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461668608"/>
+        <c:axId val="-999208480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1719,7 +1758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461665344"/>
+        <c:crossAx val="-999209568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1779,7 +1818,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> vs Story Points - Learning Based</a:t>
+              <a:t> vs Average Working Hours - Learning Based</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -1789,8 +1828,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14572091632391326"/>
-          <c:y val="9.5808371187279459E-3"/>
+          <c:x val="0.113756622911901"/>
+          <c:y val="8.3760012189950251E-4"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1804,7 +1843,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.4949142666849355E-2"/>
           <c:y val="0.13412493009257956"/>
-          <c:w val="0.87514615554867259"/>
+          <c:w val="0.88313724281110662"/>
           <c:h val="0.73392707700478388"/>
         </c:manualLayout>
       </c:layout>
@@ -2001,8 +2040,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-461675680"/>
-        <c:axId val="-461667520"/>
+        <c:axId val="-997325360"/>
+        <c:axId val="-997325904"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2012,11 +2051,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TeamStats!$C$1</c:f>
+              <c:f>TeamStats!$L$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>storyPoints</c:v>
+                  <c:v>average working period</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2033,81 +2072,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>TeamStats!$C$2:$C$25</c:f>
+              <c:f>TeamStats!$L$36:$L$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>73.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>45.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>19.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>22.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>49.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>22.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>10.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71</c:v>
+                  <c:v>45.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96</c:v>
+                  <c:v>53.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71</c:v>
+                  <c:v>39.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>32.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101</c:v>
+                  <c:v>45.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>145</c:v>
+                  <c:v>63.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>158</c:v>
+                  <c:v>67.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>145</c:v>
+                  <c:v>58.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>148</c:v>
+                  <c:v>52.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>155</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246</c:v>
+                  <c:v>70.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>255</c:v>
+                  <c:v>68.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>172</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,16 +2163,27 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-461663712"/>
-        <c:axId val="-461669696"/>
+        <c:axId val="-997334064"/>
+        <c:axId val="-997338960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-461675680"/>
+        <c:axId val="-997325360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2154,8 +2204,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42439405194419311"/>
-              <c:y val="0.9097339293401947"/>
+              <c:x val="0.42838965200788159"/>
+              <c:y val="0.91847718331372052"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2164,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461667520"/>
+        <c:crossAx val="-997325904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461667520"/>
+        <c:axId val="-997325904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -2198,18 +2248,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461675680"/>
+        <c:crossAx val="-997325360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-461669696"/>
+        <c:axId val="-997338960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2227,22 +2277,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461663712"/>
+        <c:crossAx val="-997334064"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-461663712"/>
+        <c:axId val="-997334064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-461669696"/>
-        <c:crosses val="autoZero"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="-997338960"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2255,9 +2305,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75307459472860105"/>
-          <c:y val="0.74413909263185851"/>
-          <c:w val="0.17482523862700222"/>
+          <c:x val="0.69751982186627082"/>
+          <c:y val="0.74413909394155797"/>
+          <c:w val="0.25074035353867447"/>
           <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
@@ -2375,16 +2425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>305921</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>93009</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99452</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2671,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3196,771 @@
         <v>12.916666666666666</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="I35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
+        <v>40</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <f>AVERAGE(B36:G36)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L36" s="8">
+        <f>80-I36</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>80</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>80</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" ref="I37:I59" si="2">AVERAGE(B37:G37)</f>
+        <v>28</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" ref="L37:L59" si="3">80-I37</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38" s="8">
+        <v>24</v>
+      </c>
+      <c r="C38" s="9">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9">
+        <v>56</v>
+      </c>
+      <c r="E38" s="9">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9">
+        <v>24</v>
+      </c>
+      <c r="G38" s="9">
+        <v>64</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39" s="8">
+        <v>16</v>
+      </c>
+      <c r="C39" s="9">
+        <v>40</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>72</v>
+      </c>
+      <c r="F39" s="9">
+        <v>32</v>
+      </c>
+      <c r="G39" s="9">
+        <v>8</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40" s="8">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9">
+        <v>80</v>
+      </c>
+      <c r="D40" s="9">
+        <v>16</v>
+      </c>
+      <c r="E40" s="9">
+        <v>24</v>
+      </c>
+      <c r="F40" s="9">
+        <v>80</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="2"/>
+        <v>34.666666666666664</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="3"/>
+        <v>45.333333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>6</v>
+      </c>
+      <c r="B41" s="8">
+        <v>32</v>
+      </c>
+      <c r="C41" s="9">
+        <v>80</v>
+      </c>
+      <c r="D41" s="9">
+        <v>80</v>
+      </c>
+      <c r="E41" s="9">
+        <v>80</v>
+      </c>
+      <c r="F41" s="9">
+        <v>80</v>
+      </c>
+      <c r="G41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="2"/>
+        <v>60.666666666666664</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="3"/>
+        <v>19.333333333333336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>7</v>
+      </c>
+      <c r="B42" s="8">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>40</v>
+      </c>
+      <c r="D42" s="9">
+        <v>24</v>
+      </c>
+      <c r="E42" s="9">
+        <v>80</v>
+      </c>
+      <c r="F42" s="9">
+        <v>80</v>
+      </c>
+      <c r="G42" s="9">
+        <v>80</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="2"/>
+        <v>57.333333333333336</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="3"/>
+        <v>22.666666666666664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>8</v>
+      </c>
+      <c r="B43" s="8">
+        <v>52</v>
+      </c>
+      <c r="C43" s="9">
+        <v>80</v>
+      </c>
+      <c r="D43" s="9">
+        <v>48</v>
+      </c>
+      <c r="E43" s="9">
+        <v>80</v>
+      </c>
+      <c r="F43" s="9">
+        <v>56</v>
+      </c>
+      <c r="G43" s="9">
+        <v>44</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>9</v>
+      </c>
+      <c r="B44" s="8">
+        <v>72</v>
+      </c>
+      <c r="C44" s="9">
+        <v>24</v>
+      </c>
+      <c r="D44" s="9">
+        <v>28</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>24</v>
+      </c>
+      <c r="G44" s="9">
+        <v>37</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="2"/>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="3"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>10</v>
+      </c>
+      <c r="B45" s="8">
+        <v>80</v>
+      </c>
+      <c r="C45" s="9">
+        <v>80</v>
+      </c>
+      <c r="D45" s="9">
+        <v>24</v>
+      </c>
+      <c r="E45" s="9">
+        <v>80</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3</v>
+      </c>
+      <c r="G45" s="9">
+        <v>80</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="2"/>
+        <v>57.833333333333336</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="3"/>
+        <v>22.166666666666664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>11</v>
+      </c>
+      <c r="B46" s="8">
+        <v>52</v>
+      </c>
+      <c r="C46" s="9">
+        <v>80</v>
+      </c>
+      <c r="D46" s="9">
+        <v>56</v>
+      </c>
+      <c r="E46" s="9">
+        <v>80</v>
+      </c>
+      <c r="F46" s="9">
+        <v>67</v>
+      </c>
+      <c r="G46" s="9">
+        <v>80</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="2"/>
+        <v>69.166666666666671</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="3"/>
+        <v>10.833333333333329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>12</v>
+      </c>
+      <c r="B47" s="8">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9">
+        <v>40</v>
+      </c>
+      <c r="D47" s="9">
+        <v>34</v>
+      </c>
+      <c r="E47" s="9">
+        <v>32</v>
+      </c>
+      <c r="F47" s="9">
+        <v>47</v>
+      </c>
+      <c r="G47" s="9">
+        <v>22</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="2"/>
+        <v>34.833333333333336</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="3"/>
+        <v>45.166666666666664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>13</v>
+      </c>
+      <c r="B48" s="8">
+        <v>33</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9">
+        <v>29</v>
+      </c>
+      <c r="E48" s="9">
+        <v>38</v>
+      </c>
+      <c r="F48" s="9">
+        <v>32</v>
+      </c>
+      <c r="G48" s="9">
+        <v>25</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="2"/>
+        <v>26.166666666666668</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="3"/>
+        <v>53.833333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>14</v>
+      </c>
+      <c r="B49" s="8">
+        <v>80</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>80</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
+        <v>80</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="2"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="3"/>
+        <v>39.333333333333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>15</v>
+      </c>
+      <c r="B50" s="8">
+        <v>33</v>
+      </c>
+      <c r="C50" s="9">
+        <v>80</v>
+      </c>
+      <c r="D50" s="9">
+        <v>30</v>
+      </c>
+      <c r="E50" s="9">
+        <v>26</v>
+      </c>
+      <c r="F50" s="9">
+        <v>80</v>
+      </c>
+      <c r="G50" s="9">
+        <v>34</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="2"/>
+        <v>47.166666666666664</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="3"/>
+        <v>32.833333333333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>16</v>
+      </c>
+      <c r="B51" s="8">
+        <v>35</v>
+      </c>
+      <c r="C51" s="9">
+        <v>34</v>
+      </c>
+      <c r="D51" s="9">
+        <v>34</v>
+      </c>
+      <c r="E51" s="9">
+        <v>40</v>
+      </c>
+      <c r="F51" s="9">
+        <v>25</v>
+      </c>
+      <c r="G51" s="9">
+        <v>41</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="2"/>
+        <v>34.833333333333336</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="3"/>
+        <v>45.166666666666664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>17</v>
+      </c>
+      <c r="B52" s="8">
+        <v>9</v>
+      </c>
+      <c r="C52" s="9">
+        <v>7</v>
+      </c>
+      <c r="D52" s="9">
+        <v>22</v>
+      </c>
+      <c r="E52" s="9">
+        <v>28</v>
+      </c>
+      <c r="F52" s="9">
+        <v>18</v>
+      </c>
+      <c r="G52" s="9">
+        <v>17</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="2"/>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="3"/>
+        <v>63.166666666666671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>18</v>
+      </c>
+      <c r="B53" s="8">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
+        <v>18</v>
+      </c>
+      <c r="D53" s="9">
+        <v>16</v>
+      </c>
+      <c r="E53" s="9">
+        <v>20</v>
+      </c>
+      <c r="F53" s="9">
+        <v>10</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="2"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="3"/>
+        <v>67.666666666666671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>19</v>
+      </c>
+      <c r="B54" s="8">
+        <v>13</v>
+      </c>
+      <c r="C54" s="9">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>80</v>
+      </c>
+      <c r="G54" s="9">
+        <v>21</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="2"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="3"/>
+        <v>58.333333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>20</v>
+      </c>
+      <c r="B55" s="8">
+        <v>20</v>
+      </c>
+      <c r="C55" s="9">
+        <v>4</v>
+      </c>
+      <c r="D55" s="9">
+        <v>22</v>
+      </c>
+      <c r="E55" s="9">
+        <v>30</v>
+      </c>
+      <c r="F55" s="9">
+        <v>7</v>
+      </c>
+      <c r="G55" s="9">
+        <v>80</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="2"/>
+        <v>27.166666666666668</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="3"/>
+        <v>52.833333333333329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>21</v>
+      </c>
+      <c r="B56" s="8">
+        <v>31</v>
+      </c>
+      <c r="C56" s="9">
+        <v>37</v>
+      </c>
+      <c r="D56" s="9">
+        <v>30</v>
+      </c>
+      <c r="E56" s="9">
+        <v>36</v>
+      </c>
+      <c r="F56" s="9">
+        <v>33</v>
+      </c>
+      <c r="G56" s="9">
+        <v>34</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" si="3"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>22</v>
+      </c>
+      <c r="B57" s="8">
+        <v>13</v>
+      </c>
+      <c r="C57" s="9">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9">
+        <v>11</v>
+      </c>
+      <c r="E57" s="9">
+        <v>9</v>
+      </c>
+      <c r="F57" s="9">
+        <v>7</v>
+      </c>
+      <c r="G57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="3"/>
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>23</v>
+      </c>
+      <c r="B58" s="8">
+        <v>11</v>
+      </c>
+      <c r="C58" s="9">
+        <v>15</v>
+      </c>
+      <c r="D58" s="9">
+        <v>7</v>
+      </c>
+      <c r="E58" s="9">
+        <v>16</v>
+      </c>
+      <c r="F58" s="9">
+        <v>6</v>
+      </c>
+      <c r="G58" s="9">
+        <v>15</v>
+      </c>
+      <c r="I58" s="8">
+        <f t="shared" si="2"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="3"/>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>24</v>
+      </c>
+      <c r="B59" s="8">
+        <v>40</v>
+      </c>
+      <c r="C59" s="9">
+        <v>30</v>
+      </c>
+      <c r="D59" s="9">
+        <v>35</v>
+      </c>
+      <c r="E59" s="9">
+        <v>42</v>
+      </c>
+      <c r="F59" s="9">
+        <v>41</v>
+      </c>
+      <c r="G59" s="9">
+        <v>31</v>
+      </c>
+      <c r="I59" s="8">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:G35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
